--- a/public/template_orangtua.xlsx
+++ b/public/template_orangtua.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kysti\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\New folder\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F0E02A-0A99-484C-A5F5-662988F27D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD7CA57-DA87-478F-A0A2-CF7347D086A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F467A4A8-54FD-4F0E-9F5E-6F1C32974BB2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>wali</t>
+  </si>
+  <si>
+    <t>08123456789</t>
+  </si>
+  <si>
+    <t>08198765432</t>
   </si>
 </sst>
 </file>
@@ -151,7 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -473,7 +479,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,7 +506,7 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -511,8 +517,8 @@
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5">
-        <v>8123456789</v>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -531,8 +537,8 @@
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5">
-        <v>8198765432</v>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>7</v>

--- a/public/template_orangtua.xlsx
+++ b/public/template_orangtua.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\New folder\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD7CA57-DA87-478F-A0A2-CF7347D086A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BA9E3B-B49D-463C-BE51-EC6DEE315FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F467A4A8-54FD-4F0E-9F5E-6F1C32974BB2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F467A4A8-54FD-4F0E-9F5E-6F1C32974BB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>name</t>
   </si>
@@ -73,13 +73,22 @@
   </si>
   <si>
     <t>08198765432</t>
+  </si>
+  <si>
+    <t>Kim Namjon</t>
+  </si>
+  <si>
+    <t>085175652145</t>
+  </si>
+  <si>
+    <t>namjon@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +109,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -135,22 +152,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -160,8 +169,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{FEEDD110-2465-4B00-B572-12496A35DA80}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{4954E249-2E00-401C-99BF-A7B931EFA5BA}"/>
@@ -479,7 +498,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,74 +510,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>123</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>123</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1">
+        <v>123</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{5D7AFC87-981D-4C6C-8DDB-7DCBB93A6F27}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>